--- a/database/industries/siman/silam/product/quarterly.xlsx
+++ b/database/industries/siman/silam/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\silam\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D52344B-8241-4FB9-8687-6D294D856C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0958C1-1801-4A09-8118-D8D4B3615B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/04</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/01</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/04</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/07</t>
@@ -58,10 +73,10 @@
     <t>تن</t>
   </si>
   <si>
-    <t>سیمان</t>
+    <t>-</t>
   </si>
   <si>
-    <t>-</t>
+    <t>سیمان</t>
   </si>
   <si>
     <t>میلیون ریال</t>
@@ -583,16 +598,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I108"/>
+  <dimension ref="B1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -601,8 +616,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,8 +633,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -625,8 +650,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -635,8 +665,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -647,8 +682,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +699,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -669,8 +714,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,8 +741,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -701,290 +766,475 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9">
+        <v>110726</v>
+      </c>
+      <c r="J10" s="9">
         <v>624493</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>268748</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>205480</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>385400</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>132339</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11">
         <v>573808</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>114977</v>
+      </c>
+      <c r="F13" s="11">
+        <v>161367</v>
+      </c>
+      <c r="G13" s="11">
+        <v>248514</v>
+      </c>
+      <c r="H13" s="11">
+        <v>238930</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11">
+        <v>266930</v>
+      </c>
+      <c r="J15" s="11">
         <v>113255</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="E16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9">
+        <v>136793</v>
+      </c>
+      <c r="J16" s="9">
         <v>56412</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9">
         <v>118649</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>111358</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>139284</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>183818</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>114977</v>
+      </c>
+      <c r="F21" s="13">
+        <v>161367</v>
+      </c>
+      <c r="G21" s="13">
+        <v>248514</v>
+      </c>
+      <c r="H21" s="13">
+        <v>238930</v>
+      </c>
+      <c r="I21" s="13">
+        <v>514449</v>
+      </c>
+      <c r="J21" s="13">
         <v>794160</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>961205</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>316838</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>524684</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>316204</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -993,8 +1243,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1003,8 +1258,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1013,10 +1273,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1035,8 +1300,23 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1045,200 +1325,325 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
+        <v>37093</v>
+      </c>
+      <c r="F27" s="9">
+        <v>21293</v>
+      </c>
+      <c r="G27" s="9">
+        <v>40248</v>
+      </c>
+      <c r="H27" s="9">
+        <v>45059</v>
+      </c>
+      <c r="I27" s="9">
+        <v>64702</v>
+      </c>
+      <c r="J27" s="9">
         <v>23906</v>
       </c>
-      <c r="F27" s="9">
+      <c r="K27" s="9">
         <v>115045</v>
       </c>
-      <c r="G27" s="9">
+      <c r="L27" s="9">
         <v>117197</v>
       </c>
-      <c r="H27" s="9">
+      <c r="M27" s="9">
         <v>177046</v>
       </c>
-      <c r="I27" s="9">
+      <c r="N27" s="9">
         <v>102810</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="11">
+        <v>17</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="11">
         <v>21080</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="L28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>13</v>
+        <v>17909</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5777</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>13</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -1257,148 +1662,253 @@
       <c r="I35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>227863</v>
+      </c>
+      <c r="F36" s="11">
+        <v>124139</v>
+      </c>
+      <c r="G36" s="11">
+        <v>99641</v>
+      </c>
+      <c r="H36" s="11">
+        <v>138446</v>
+      </c>
+      <c r="I36" s="11">
+        <v>128484</v>
+      </c>
+      <c r="J36" s="11">
         <v>107254</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>55906</v>
+      </c>
+      <c r="F37" s="9">
+        <v>59391</v>
+      </c>
+      <c r="G37" s="9">
+        <v>57601</v>
+      </c>
+      <c r="H37" s="9">
+        <v>62757</v>
+      </c>
+      <c r="I37" s="9">
+        <v>74035</v>
+      </c>
+      <c r="J37" s="9">
         <v>55613</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>13</v>
+      <c r="E38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0</v>
-      </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11">
+        <v>17</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11">
         <v>109594</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>106405</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>145288</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>134913</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
+        <v>338771</v>
+      </c>
+      <c r="F41" s="15">
+        <v>210600</v>
+      </c>
+      <c r="G41" s="15">
+        <v>197490</v>
+      </c>
+      <c r="H41" s="15">
+        <v>246262</v>
+      </c>
+      <c r="I41" s="15">
+        <v>267221</v>
+      </c>
+      <c r="J41" s="15">
         <v>186773</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>245719</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>223602</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>322334</v>
       </c>
-      <c r="I41" s="15">
+      <c r="N41" s="15">
         <v>237769</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1407,8 +1917,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1417,8 +1932,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1427,10 +1947,15 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -1449,8 +1974,23 @@
       <c r="I45" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1459,342 +1999,557 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
+        <v>57440</v>
+      </c>
+      <c r="F47" s="9">
+        <v>41990</v>
+      </c>
+      <c r="G47" s="9">
+        <v>106047</v>
+      </c>
+      <c r="H47" s="9">
+        <v>112914</v>
+      </c>
+      <c r="I47" s="9">
+        <v>199325</v>
+      </c>
+      <c r="J47" s="9">
         <v>102228</v>
       </c>
-      <c r="F47" s="9">
+      <c r="K47" s="9">
         <v>523428</v>
       </c>
-      <c r="G47" s="9">
+      <c r="L47" s="9">
         <v>602521</v>
       </c>
-      <c r="H47" s="9">
+      <c r="M47" s="9">
         <v>1136252</v>
       </c>
-      <c r="I47" s="9">
+      <c r="N47" s="9">
         <v>719999</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>50148</v>
       </c>
       <c r="F48" s="11">
+        <v>16174</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
         <v>91175</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
+      <c r="L48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>13</v>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>-98838</v>
+      </c>
+      <c r="F54" s="11">
+        <v>98838</v>
+      </c>
+      <c r="G54" s="11">
+        <v>-165601</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>-3845</v>
+      </c>
+      <c r="J54" s="11">
         <v>3845</v>
       </c>
-      <c r="F54" s="11">
+      <c r="K54" s="11">
         <v>-28552</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>355105</v>
+      </c>
+      <c r="F55" s="9">
+        <v>244334</v>
+      </c>
+      <c r="G55" s="9">
+        <v>296185</v>
+      </c>
+      <c r="H55" s="9">
+        <v>435390</v>
+      </c>
+      <c r="I55" s="9">
+        <v>552397</v>
+      </c>
+      <c r="J55" s="9">
         <v>489027</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>122561</v>
+      </c>
+      <c r="F56" s="11">
+        <v>87736</v>
+      </c>
+      <c r="G56" s="11">
+        <v>282643</v>
+      </c>
+      <c r="H56" s="11">
+        <v>137158</v>
+      </c>
+      <c r="I56" s="11">
+        <v>242895</v>
+      </c>
+      <c r="J56" s="11">
         <v>189421</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>0</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="9">
+        <v>33250</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="9">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
         <v>19000</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="11">
-        <v>0</v>
-      </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="11">
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="9">
+        <v>17</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="9">
         <v>473611</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>527508</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>779903</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>731686</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>486416</v>
+      </c>
+      <c r="F60" s="13">
+        <v>489072</v>
+      </c>
+      <c r="G60" s="13">
+        <v>552524</v>
+      </c>
+      <c r="H60" s="13">
+        <v>685462</v>
+      </c>
+      <c r="I60" s="13">
+        <v>990772</v>
+      </c>
+      <c r="J60" s="13">
         <v>784521</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>1078662</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>1130029</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>1916155</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>1452128</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1803,8 +2558,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1813,8 +2573,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1823,10 +2588,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1845,8 +2615,23 @@
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1855,320 +2640,520 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
+        <v>1548540</v>
+      </c>
+      <c r="F66" s="9">
+        <v>1972010</v>
+      </c>
+      <c r="G66" s="9">
+        <v>2083227</v>
+      </c>
+      <c r="H66" s="9">
+        <v>2505914</v>
+      </c>
+      <c r="I66" s="9">
+        <v>2844717</v>
+      </c>
+      <c r="J66" s="9">
         <v>4276249</v>
       </c>
-      <c r="F66" s="9">
+      <c r="K66" s="9">
         <v>3771005</v>
       </c>
-      <c r="G66" s="9">
+      <c r="L66" s="9">
         <v>5141096</v>
       </c>
-      <c r="H66" s="9">
+      <c r="M66" s="9">
         <v>5909307</v>
       </c>
-      <c r="I66" s="9">
+      <c r="N66" s="9">
         <v>7003212</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>2701226</v>
       </c>
       <c r="F67" s="11">
+        <v>2799723</v>
+      </c>
+      <c r="G67" s="11">
+        <v>2719212</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11">
         <v>3609726</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="11">
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="11">
         <v>9425532</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
+        <v>2262859</v>
+      </c>
+      <c r="F74" s="9">
+        <v>1968229</v>
+      </c>
+      <c r="G74" s="9">
+        <v>2336863</v>
+      </c>
+      <c r="H74" s="9">
+        <v>3144836</v>
+      </c>
+      <c r="I74" s="9">
+        <v>3700547</v>
+      </c>
+      <c r="J74" s="9">
         <v>4559522</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>1919856</v>
+      </c>
+      <c r="F75" s="11">
+        <v>1477261</v>
+      </c>
+      <c r="G75" s="11">
+        <v>2620753</v>
+      </c>
+      <c r="H75" s="11">
+        <v>2185541</v>
+      </c>
+      <c r="I75" s="11">
+        <v>2778328</v>
+      </c>
+      <c r="J75" s="11">
         <v>3406056</v>
       </c>
-      <c r="F75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="9">
+        <v>17</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="9">
         <v>4345102</v>
       </c>
-      <c r="G78" s="9">
+      <c r="L78" s="9">
         <v>4957549</v>
       </c>
-      <c r="H78" s="9">
+      <c r="M78" s="9">
         <v>5194462</v>
       </c>
-      <c r="I78" s="9">
+      <c r="N78" s="9">
         <v>5423407</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2177,8 +3162,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2187,8 +3177,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2197,10 +3192,15 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2219,8 +3219,23 @@
       <c r="I82" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2229,85 +3244,135 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>-36792</v>
+      </c>
+      <c r="F84" s="9">
+        <v>-38791</v>
+      </c>
+      <c r="G84" s="9">
+        <v>-36929</v>
+      </c>
+      <c r="H84" s="9">
+        <v>-61899</v>
+      </c>
+      <c r="I84" s="9">
+        <v>-86328</v>
+      </c>
+      <c r="J84" s="9">
         <v>-104611</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>-150301</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>-383089</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>-399413</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>-184181</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>0</v>
+        <v>-33694</v>
       </c>
       <c r="F85" s="11">
+        <v>-18359</v>
+      </c>
+      <c r="G85" s="11">
+        <v>-17208</v>
+      </c>
+      <c r="H85" s="11">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>0</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
         <v>-1684802</v>
       </c>
-      <c r="G85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
+      <c r="L85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
         <v>-332</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>13</v>
+      <c r="E86" s="9">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
@@ -2317,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="11">
-        <v>0</v>
+        <v>165601</v>
       </c>
       <c r="H87" s="11">
         <v>0</v>
@@ -2325,150 +3390,255 @@
       <c r="I87" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="11">
+        <v>0</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11">
+        <v>0</v>
+      </c>
+      <c r="M87" s="11">
+        <v>0</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
+        <v>-258940</v>
+      </c>
+      <c r="F88" s="9">
+        <v>-234927</v>
+      </c>
+      <c r="G88" s="9">
+        <v>-440662</v>
+      </c>
+      <c r="H88" s="9">
+        <v>-307974</v>
+      </c>
+      <c r="I88" s="9">
+        <v>-435410</v>
+      </c>
+      <c r="J88" s="9">
         <v>-258442</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>-70728</v>
+      </c>
+      <c r="F89" s="11">
+        <v>-77580</v>
+      </c>
+      <c r="G89" s="11">
+        <v>-108623</v>
+      </c>
+      <c r="H89" s="11">
+        <v>-78126</v>
+      </c>
+      <c r="I89" s="11">
+        <v>-200044</v>
+      </c>
+      <c r="J89" s="11">
         <v>-99391</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="9">
-        <v>0</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>13</v>
+      <c r="E90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="9">
+        <v>0</v>
+      </c>
+      <c r="H90" s="9">
+        <v>0</v>
       </c>
       <c r="I90" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J90" s="9">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9">
+        <v>0</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="11">
-        <v>0</v>
-      </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" s="11">
+        <v>0</v>
+      </c>
+      <c r="M91" s="11">
+        <v>0</v>
+      </c>
+      <c r="N91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="9">
+        <v>17</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="9">
         <v>-328923</v>
       </c>
-      <c r="G92" s="9">
+      <c r="L92" s="9">
         <v>-332330</v>
       </c>
-      <c r="H92" s="9">
+      <c r="M92" s="9">
         <v>-634408</v>
       </c>
-      <c r="I92" s="9">
+      <c r="N92" s="9">
         <v>-562584</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
+        <v>-400154</v>
+      </c>
+      <c r="F93" s="13">
+        <v>-369657</v>
+      </c>
+      <c r="G93" s="13">
+        <v>-437821</v>
+      </c>
+      <c r="H93" s="13">
+        <v>-447999</v>
+      </c>
+      <c r="I93" s="13">
+        <v>-721782</v>
+      </c>
+      <c r="J93" s="13">
         <v>-462444</v>
       </c>
-      <c r="F93" s="13">
+      <c r="K93" s="13">
         <v>-2164026</v>
       </c>
-      <c r="G93" s="13">
+      <c r="L93" s="13">
         <v>-715419</v>
       </c>
-      <c r="H93" s="13">
+      <c r="M93" s="13">
         <v>-1033821</v>
       </c>
-      <c r="I93" s="13">
+      <c r="N93" s="13">
         <v>-747097</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2477,8 +3647,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2487,8 +3662,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2497,10 +3677,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2519,8 +3704,23 @@
       <c r="I97" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2529,92 +3729,142 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>20648</v>
+      </c>
+      <c r="F99" s="9">
+        <v>3199</v>
+      </c>
+      <c r="G99" s="9">
+        <v>69118</v>
+      </c>
+      <c r="H99" s="9">
+        <v>51015</v>
+      </c>
+      <c r="I99" s="9">
+        <v>112997</v>
+      </c>
+      <c r="J99" s="9">
         <v>-2383</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>373128</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>219432</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>736839</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>535818</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>0</v>
+        <v>16454</v>
       </c>
       <c r="F100" s="11">
+        <v>-2185</v>
+      </c>
+      <c r="G100" s="11">
+        <v>-17208</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>0</v>
+      </c>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="11">
         <v>370014</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
+      <c r="L100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="11">
+        <v>0</v>
+      </c>
+      <c r="N100" s="11">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>13</v>
+      <c r="E101" s="9">
+        <v>0</v>
+      </c>
+      <c r="F101" s="9">
+        <v>0</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>0</v>
+        <v>-98838</v>
       </c>
       <c r="F102" s="11">
-        <v>0</v>
+        <v>98838</v>
       </c>
       <c r="G102" s="11">
         <v>0</v>
@@ -2625,146 +3875,251 @@
       <c r="I102" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="11">
+        <v>0</v>
+      </c>
+      <c r="K102" s="11">
+        <v>0</v>
+      </c>
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
+        <v>0</v>
+      </c>
+      <c r="N102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>96165</v>
+      </c>
+      <c r="F103" s="9">
+        <v>9407</v>
+      </c>
+      <c r="G103" s="9">
+        <v>-144477</v>
+      </c>
+      <c r="H103" s="9">
+        <v>127416</v>
+      </c>
+      <c r="I103" s="9">
+        <v>116987</v>
+      </c>
+      <c r="J103" s="9">
         <v>230585</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N103" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>51833</v>
+      </c>
+      <c r="F104" s="11">
+        <v>10156</v>
+      </c>
+      <c r="G104" s="11">
+        <v>174020</v>
+      </c>
+      <c r="H104" s="11">
+        <v>59032</v>
+      </c>
+      <c r="I104" s="11">
+        <v>42851</v>
+      </c>
+      <c r="J104" s="11">
         <v>90030</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
+      <c r="E105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="9">
+        <v>33250</v>
+      </c>
+      <c r="H105" s="9">
+        <v>0</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" s="9">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9">
         <v>19000</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="11">
-        <v>0</v>
-      </c>
-      <c r="H106" s="11">
-        <v>0</v>
-      </c>
-      <c r="I106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106" s="11">
+        <v>0</v>
+      </c>
+      <c r="M106" s="11">
+        <v>0</v>
+      </c>
+      <c r="N106" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="9">
+        <v>17</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" s="9">
         <v>227336</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>195178</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>145495</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>169102</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
+        <v>86262</v>
+      </c>
+      <c r="F108" s="13">
+        <v>119415</v>
+      </c>
+      <c r="G108" s="13">
+        <v>114703</v>
+      </c>
+      <c r="H108" s="13">
+        <v>237463</v>
+      </c>
+      <c r="I108" s="13">
+        <v>272835</v>
+      </c>
+      <c r="J108" s="13">
         <v>318232</v>
       </c>
-      <c r="F108" s="13">
+      <c r="K108" s="13">
         <v>989478</v>
       </c>
-      <c r="G108" s="13">
+      <c r="L108" s="13">
         <v>414610</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>882334</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>705031</v>
       </c>
     </row>

--- a/database/industries/siman/silam/product/quarterly.xlsx
+++ b/database/industries/siman/silam/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0958C1-1801-4A09-8118-D8D4B3615B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05358E24-5515-41F9-AC03-2EBE5603493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/04</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/07</t>
   </si>
   <si>
     <t>فصل چهارم منتهی به 1399/10</t>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/01</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -602,12 +602,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -622,7 +622,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -671,7 +671,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -720,7 +720,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -772,7 +772,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -786,32 +786,32 @@
       <c r="F10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>17</v>
+      <c r="G10" s="9">
+        <v>110726</v>
+      </c>
+      <c r="H10" s="9">
+        <v>624493</v>
       </c>
       <c r="I10" s="9">
-        <v>110726</v>
+        <v>268748</v>
       </c>
       <c r="J10" s="9">
-        <v>624493</v>
+        <v>205480</v>
       </c>
       <c r="K10" s="9">
-        <v>268748</v>
+        <v>385400</v>
       </c>
       <c r="L10" s="9">
-        <v>205480</v>
+        <v>132339</v>
       </c>
       <c r="M10" s="9">
-        <v>385400</v>
+        <v>392201</v>
       </c>
       <c r="N10" s="9">
-        <v>132339</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>168915</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -825,32 +825,32 @@
       <c r="F11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
+      <c r="G11" s="11">
+        <v>0</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="11">
-        <v>0</v>
+        <v>573808</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="11">
-        <v>573808</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>47</v>
       </c>
       <c r="M11" s="11">
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -867,14 +867,14 @@
       <c r="G12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>17</v>
@@ -889,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -898,17 +898,17 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>114977</v>
+        <v>248514</v>
       </c>
       <c r="F13" s="11">
-        <v>161367</v>
-      </c>
-      <c r="G13" s="11">
-        <v>248514</v>
-      </c>
-      <c r="H13" s="11">
         <v>238930</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="11" t="s">
         <v>17</v>
       </c>
@@ -928,7 +928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -940,11 +940,11 @@
       <c r="F14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -979,18 +979,18 @@
       <c r="F15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="G15" s="11">
         <v>266930</v>
       </c>
-      <c r="J15" s="11">
+      <c r="H15" s="11">
         <v>113255</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1000,11 +1000,11 @@
       <c r="M15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="11">
+        <v>81157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1018,18 +1018,18 @@
       <c r="F16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="9">
         <v>136793</v>
       </c>
-      <c r="J16" s="9">
+      <c r="H16" s="9">
         <v>56412</v>
       </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1039,11 +1039,11 @@
       <c r="M16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="9">
+        <v>70052</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1099,29 +1099,29 @@
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>17</v>
+      <c r="M18" s="9">
+        <v>0</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1142,23 +1142,23 @@
       <c r="I19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>17</v>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
       </c>
       <c r="L19" s="11">
         <v>0</v>
       </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1178,63 +1178,63 @@
       <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>17</v>
+      <c r="I20" s="9">
+        <v>118649</v>
+      </c>
+      <c r="J20" s="9">
+        <v>111358</v>
       </c>
       <c r="K20" s="9">
-        <v>118649</v>
+        <v>139284</v>
       </c>
       <c r="L20" s="9">
-        <v>111358</v>
+        <v>183818</v>
       </c>
       <c r="M20" s="9">
-        <v>139284</v>
+        <v>107394</v>
       </c>
       <c r="N20" s="9">
-        <v>183818</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>114977</v>
+        <v>248514</v>
       </c>
       <c r="F21" s="13">
-        <v>161367</v>
+        <v>238930</v>
       </c>
       <c r="G21" s="13">
-        <v>248514</v>
+        <v>514449</v>
       </c>
       <c r="H21" s="13">
-        <v>238930</v>
+        <v>794160</v>
       </c>
       <c r="I21" s="13">
-        <v>514449</v>
+        <v>961205</v>
       </c>
       <c r="J21" s="13">
-        <v>794160</v>
+        <v>316838</v>
       </c>
       <c r="K21" s="13">
-        <v>961205</v>
+        <v>524684</v>
       </c>
       <c r="L21" s="13">
-        <v>316838</v>
+        <v>316204</v>
       </c>
       <c r="M21" s="13">
-        <v>524684</v>
+        <v>499595</v>
       </c>
       <c r="N21" s="13">
-        <v>316204</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>320124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1249,7 +1249,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1264,7 +1264,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1279,7 +1279,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1340,37 +1340,37 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>37093</v>
+        <v>40248</v>
       </c>
       <c r="F27" s="9">
-        <v>21293</v>
+        <v>45059</v>
       </c>
       <c r="G27" s="9">
-        <v>40248</v>
+        <v>64702</v>
       </c>
       <c r="H27" s="9">
-        <v>45059</v>
+        <v>23906</v>
       </c>
       <c r="I27" s="9">
-        <v>64702</v>
+        <v>115045</v>
       </c>
       <c r="J27" s="9">
-        <v>23906</v>
+        <v>117197</v>
       </c>
       <c r="K27" s="9">
-        <v>115045</v>
+        <v>177046</v>
       </c>
       <c r="L27" s="9">
-        <v>117197</v>
+        <v>102810</v>
       </c>
       <c r="M27" s="9">
-        <v>177046</v>
+        <v>109109</v>
       </c>
       <c r="N27" s="9">
-        <v>102810</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71630</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -1384,32 +1384,32 @@
       <c r="F28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>17</v>
+      <c r="G28" s="11">
+        <v>0</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="11">
-        <v>0</v>
+        <v>21080</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="11">
-        <v>21080</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <v>47</v>
       </c>
       <c r="M28" s="11">
         <v>0</v>
       </c>
-      <c r="N28" s="11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1418,13 +1418,13 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>17909</v>
+        <v>0</v>
       </c>
       <c r="F29" s="9">
-        <v>5777</v>
-      </c>
-      <c r="G29" s="9">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -1432,8 +1432,8 @@
       <c r="I29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="9">
-        <v>0</v>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>17</v>
@@ -1448,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>33</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="G34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>17</v>
@@ -1641,7 +1641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>22</v>
       </c>
@@ -1687,23 +1687,23 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>227863</v>
+        <v>99641</v>
       </c>
       <c r="F36" s="11">
-        <v>124139</v>
+        <v>138446</v>
       </c>
       <c r="G36" s="11">
-        <v>99641</v>
+        <v>128484</v>
       </c>
       <c r="H36" s="11">
-        <v>138446</v>
-      </c>
-      <c r="I36" s="11">
-        <v>128484</v>
-      </c>
-      <c r="J36" s="11">
         <v>107254</v>
       </c>
+      <c r="I36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K36" s="11" t="s">
         <v>17</v>
       </c>
@@ -1713,11 +1713,11 @@
       <c r="M36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="11">
+        <v>85036</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>23</v>
       </c>
@@ -1726,23 +1726,23 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>55906</v>
+        <v>57601</v>
       </c>
       <c r="F37" s="9">
-        <v>59391</v>
+        <v>62757</v>
       </c>
       <c r="G37" s="9">
-        <v>57601</v>
+        <v>74035</v>
       </c>
       <c r="H37" s="9">
-        <v>62757</v>
-      </c>
-      <c r="I37" s="9">
-        <v>74035</v>
-      </c>
-      <c r="J37" s="9">
         <v>55613</v>
       </c>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K37" s="9" t="s">
         <v>17</v>
       </c>
@@ -1752,11 +1752,11 @@
       <c r="M37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="9">
+        <v>66930</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>25</v>
       </c>
@@ -1764,38 +1764,38 @@
         <v>19</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>17</v>
+      <c r="M38" s="11">
+        <v>0</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
@@ -1816,23 +1816,23 @@
       <c r="I39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
       </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
@@ -1852,63 +1852,63 @@
       <c r="H40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>17</v>
+      <c r="I40" s="11">
+        <v>109594</v>
+      </c>
+      <c r="J40" s="11">
+        <v>106405</v>
       </c>
       <c r="K40" s="11">
-        <v>109594</v>
+        <v>145288</v>
       </c>
       <c r="L40" s="11">
-        <v>106405</v>
+        <v>134913</v>
       </c>
       <c r="M40" s="11">
-        <v>145288</v>
+        <v>157728</v>
       </c>
       <c r="N40" s="11">
-        <v>134913</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>338771</v>
+        <v>197490</v>
       </c>
       <c r="F41" s="15">
-        <v>210600</v>
+        <v>246262</v>
       </c>
       <c r="G41" s="15">
-        <v>197490</v>
+        <v>267221</v>
       </c>
       <c r="H41" s="15">
-        <v>246262</v>
+        <v>186773</v>
       </c>
       <c r="I41" s="15">
-        <v>267221</v>
+        <v>245719</v>
       </c>
       <c r="J41" s="15">
-        <v>186773</v>
+        <v>223602</v>
       </c>
       <c r="K41" s="15">
-        <v>245719</v>
+        <v>322334</v>
       </c>
       <c r="L41" s="15">
-        <v>223602</v>
+        <v>237769</v>
       </c>
       <c r="M41" s="15">
-        <v>322334</v>
+        <v>266837</v>
       </c>
       <c r="N41" s="15">
-        <v>237769</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>223596</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1923,7 +1923,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1938,7 +1938,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1953,7 +1953,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>34</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2005,7 +2005,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
@@ -2014,37 +2014,37 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
-        <v>57440</v>
+        <v>106047</v>
       </c>
       <c r="F47" s="9">
-        <v>41990</v>
+        <v>112914</v>
       </c>
       <c r="G47" s="9">
-        <v>106047</v>
+        <v>199325</v>
       </c>
       <c r="H47" s="9">
-        <v>112914</v>
+        <v>102228</v>
       </c>
       <c r="I47" s="9">
-        <v>199325</v>
+        <v>523428</v>
       </c>
       <c r="J47" s="9">
-        <v>102228</v>
+        <v>602521</v>
       </c>
       <c r="K47" s="9">
-        <v>523428</v>
+        <v>1136252</v>
       </c>
       <c r="L47" s="9">
-        <v>602521</v>
+        <v>719999</v>
       </c>
       <c r="M47" s="9">
-        <v>1136252</v>
+        <v>914683</v>
       </c>
       <c r="N47" s="9">
-        <v>719999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>770045</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>18</v>
       </c>
@@ -2053,10 +2053,10 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>50148</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>16174</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -2065,25 +2065,25 @@
         <v>0</v>
       </c>
       <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
+        <v>91175</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K48" s="11">
-        <v>91175</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>443</v>
       </c>
       <c r="M48" s="11">
         <v>0</v>
       </c>
-      <c r="N48" s="11">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>31</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2253,11 +2253,11 @@
       <c r="F53" s="9">
         <v>0</v>
       </c>
-      <c r="G53" s="9">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0</v>
+      <c r="G53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>17</v>
@@ -2278,7 +2278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>21</v>
       </c>
@@ -2287,25 +2287,25 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>-98838</v>
+        <v>-165601</v>
       </c>
       <c r="F54" s="11">
-        <v>98838</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
-        <v>-165601</v>
+        <v>-3845</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>3845</v>
       </c>
       <c r="I54" s="11">
-        <v>-3845</v>
+        <v>-28552</v>
       </c>
       <c r="J54" s="11">
-        <v>3845</v>
+        <v>0</v>
       </c>
       <c r="K54" s="11">
-        <v>-28552</v>
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>22</v>
       </c>
@@ -2326,23 +2326,23 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>355105</v>
+        <v>296185</v>
       </c>
       <c r="F55" s="9">
-        <v>244334</v>
+        <v>435390</v>
       </c>
       <c r="G55" s="9">
-        <v>296185</v>
+        <v>552397</v>
       </c>
       <c r="H55" s="9">
-        <v>435390</v>
-      </c>
-      <c r="I55" s="9">
-        <v>552397</v>
-      </c>
-      <c r="J55" s="9">
         <v>489027</v>
       </c>
+      <c r="I55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K55" s="9" t="s">
         <v>17</v>
       </c>
@@ -2352,11 +2352,11 @@
       <c r="M55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="9">
+        <v>572195</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>23</v>
       </c>
@@ -2365,23 +2365,23 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>122561</v>
+        <v>282643</v>
       </c>
       <c r="F56" s="11">
-        <v>87736</v>
+        <v>137158</v>
       </c>
       <c r="G56" s="11">
-        <v>282643</v>
+        <v>242895</v>
       </c>
       <c r="H56" s="11">
-        <v>137158</v>
-      </c>
-      <c r="I56" s="11">
-        <v>242895</v>
-      </c>
-      <c r="J56" s="11">
         <v>189421</v>
       </c>
+      <c r="I56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K56" s="11" t="s">
         <v>17</v>
       </c>
@@ -2391,11 +2391,11 @@
       <c r="M56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N56" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="11">
+        <v>313745</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>25</v>
       </c>
@@ -2403,38 +2403,38 @@
         <v>19</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="9">
+      <c r="E57" s="9">
         <v>33250</v>
       </c>
+      <c r="F57" s="9">
+        <v>0</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" s="9">
         <v>0</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="9">
-        <v>0</v>
-      </c>
-      <c r="K57" s="9">
+      <c r="I57" s="9">
         <v>19000</v>
       </c>
+      <c r="J57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="9" t="s">
-        <v>17</v>
+      <c r="M57" s="9">
+        <v>28500</v>
       </c>
       <c r="N57" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>17</v>
       </c>
@@ -2457,23 +2457,23 @@
       <c r="I58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>17</v>
+      <c r="J58" s="11">
+        <v>0</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
       </c>
       <c r="L58" s="11">
         <v>0</v>
       </c>
-      <c r="M58" s="11">
-        <v>0</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>26</v>
       </c>
@@ -2493,63 +2493,63 @@
       <c r="H59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>17</v>
+      <c r="I59" s="9">
+        <v>473611</v>
+      </c>
+      <c r="J59" s="9">
+        <v>527508</v>
       </c>
       <c r="K59" s="9">
-        <v>473611</v>
+        <v>779903</v>
       </c>
       <c r="L59" s="9">
-        <v>527508</v>
+        <v>731686</v>
       </c>
       <c r="M59" s="9">
-        <v>779903</v>
+        <v>859093</v>
       </c>
       <c r="N59" s="9">
-        <v>731686</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>486416</v>
+        <v>552524</v>
       </c>
       <c r="F60" s="13">
-        <v>489072</v>
+        <v>685462</v>
       </c>
       <c r="G60" s="13">
-        <v>552524</v>
+        <v>990772</v>
       </c>
       <c r="H60" s="13">
-        <v>685462</v>
+        <v>784521</v>
       </c>
       <c r="I60" s="13">
-        <v>990772</v>
+        <v>1078662</v>
       </c>
       <c r="J60" s="13">
-        <v>784521</v>
+        <v>1130029</v>
       </c>
       <c r="K60" s="13">
-        <v>1078662</v>
+        <v>1916155</v>
       </c>
       <c r="L60" s="13">
-        <v>1130029</v>
+        <v>1452128</v>
       </c>
       <c r="M60" s="13">
-        <v>1916155</v>
+        <v>1802276</v>
       </c>
       <c r="N60" s="13">
-        <v>1452128</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1655985</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2564,7 +2564,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2579,7 +2579,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2594,7 +2594,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>35</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2646,7 +2646,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>15</v>
       </c>
@@ -2655,37 +2655,37 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>1548540</v>
+        <v>2083227</v>
       </c>
       <c r="F66" s="9">
-        <v>1972010</v>
+        <v>2505914</v>
       </c>
       <c r="G66" s="9">
-        <v>2083227</v>
+        <v>2844717</v>
       </c>
       <c r="H66" s="9">
-        <v>2505914</v>
+        <v>4276249</v>
       </c>
       <c r="I66" s="9">
-        <v>2844717</v>
+        <v>3771005</v>
       </c>
       <c r="J66" s="9">
-        <v>4276249</v>
+        <v>5141096</v>
       </c>
       <c r="K66" s="9">
-        <v>3771005</v>
+        <v>5909307</v>
       </c>
       <c r="L66" s="9">
-        <v>5141096</v>
+        <v>7003212</v>
       </c>
       <c r="M66" s="9">
-        <v>5909307</v>
+        <v>8383202</v>
       </c>
       <c r="N66" s="9">
-        <v>7003212</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10750314</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
@@ -2694,37 +2694,37 @@
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
-        <v>2701226</v>
-      </c>
-      <c r="F67" s="11">
-        <v>2799723</v>
-      </c>
-      <c r="G67" s="11">
         <v>2719212</v>
       </c>
+      <c r="F67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="11" t="s">
-        <v>17</v>
+      <c r="I67" s="11">
+        <v>3609726</v>
       </c>
       <c r="J67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="11">
-        <v>3609726</v>
-      </c>
-      <c r="L67" s="11" t="s">
-        <v>17</v>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11">
+        <v>9425532</v>
       </c>
       <c r="M67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N67" s="11">
-        <v>9425532</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>29</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>30</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>31</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>32</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>33</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>22</v>
       </c>
@@ -2967,23 +2967,23 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9">
-        <v>2262859</v>
+        <v>2336863</v>
       </c>
       <c r="F74" s="9">
-        <v>1968229</v>
+        <v>3144836</v>
       </c>
       <c r="G74" s="9">
-        <v>2336863</v>
+        <v>3700547</v>
       </c>
       <c r="H74" s="9">
-        <v>3144836</v>
-      </c>
-      <c r="I74" s="9">
-        <v>3700547</v>
-      </c>
-      <c r="J74" s="9">
         <v>4559522</v>
       </c>
+      <c r="I74" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K74" s="9" t="s">
         <v>17</v>
       </c>
@@ -2993,11 +2993,11 @@
       <c r="M74" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N74" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="9">
+        <v>6728856</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>23</v>
       </c>
@@ -3006,23 +3006,23 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>1919856</v>
+        <v>2620753</v>
       </c>
       <c r="F75" s="11">
-        <v>1477261</v>
+        <v>2185541</v>
       </c>
       <c r="G75" s="11">
-        <v>2620753</v>
+        <v>2778328</v>
       </c>
       <c r="H75" s="11">
-        <v>2185541</v>
-      </c>
-      <c r="I75" s="11">
-        <v>2778328</v>
-      </c>
-      <c r="J75" s="11">
         <v>3406056</v>
       </c>
+      <c r="I75" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K75" s="11" t="s">
         <v>17</v>
       </c>
@@ -3032,11 +3032,11 @@
       <c r="M75" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N75" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="11">
+        <v>4687659</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>25</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>17</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>26</v>
       </c>
@@ -3134,26 +3134,26 @@
       <c r="H78" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I78" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>17</v>
+      <c r="I78" s="9">
+        <v>4345102</v>
+      </c>
+      <c r="J78" s="9">
+        <v>4957549</v>
       </c>
       <c r="K78" s="9">
-        <v>4345102</v>
+        <v>5194462</v>
       </c>
       <c r="L78" s="9">
-        <v>4957549</v>
+        <v>5423407</v>
       </c>
       <c r="M78" s="9">
-        <v>5194462</v>
-      </c>
-      <c r="N78" s="9">
-        <v>5423407</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5446669</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3168,7 +3168,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3183,7 +3183,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3198,7 +3198,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>39</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3250,7 +3250,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>15</v>
       </c>
@@ -3259,37 +3259,37 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>-36792</v>
+        <v>-36929</v>
       </c>
       <c r="F84" s="9">
-        <v>-38791</v>
+        <v>-61899</v>
       </c>
       <c r="G84" s="9">
-        <v>-36929</v>
+        <v>-86328</v>
       </c>
       <c r="H84" s="9">
-        <v>-61899</v>
+        <v>-104611</v>
       </c>
       <c r="I84" s="9">
-        <v>-86328</v>
+        <v>-150301</v>
       </c>
       <c r="J84" s="9">
-        <v>-104611</v>
+        <v>-383089</v>
       </c>
       <c r="K84" s="9">
-        <v>-150301</v>
+        <v>-399413</v>
       </c>
       <c r="L84" s="9">
-        <v>-383089</v>
+        <v>-184181</v>
       </c>
       <c r="M84" s="9">
-        <v>-399413</v>
+        <v>-533926</v>
       </c>
       <c r="N84" s="9">
-        <v>-184181</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-338820</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>18</v>
       </c>
@@ -3298,37 +3298,37 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>-33694</v>
+        <v>-17208</v>
       </c>
       <c r="F85" s="11">
-        <v>-18359</v>
+        <v>0</v>
       </c>
       <c r="G85" s="11">
-        <v>-17208</v>
+        <v>0</v>
       </c>
       <c r="H85" s="11">
         <v>0</v>
       </c>
       <c r="I85" s="11">
-        <v>0</v>
-      </c>
-      <c r="J85" s="11">
-        <v>0</v>
+        <v>-1684802</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K85" s="11">
-        <v>-1684802</v>
-      </c>
-      <c r="L85" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>-332</v>
       </c>
       <c r="M85" s="11">
-        <v>0</v>
-      </c>
-      <c r="N85" s="11">
-        <v>-332</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-88</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>33</v>
       </c>
@@ -3342,11 +3342,11 @@
       <c r="F86" s="9">
         <v>0</v>
       </c>
-      <c r="G86" s="9">
-        <v>0</v>
-      </c>
-      <c r="H86" s="9">
-        <v>0</v>
+      <c r="G86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I86" s="9" t="s">
         <v>17</v>
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>21</v>
       </c>
@@ -3376,13 +3376,13 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>165601</v>
       </c>
       <c r="F87" s="11">
         <v>0</v>
       </c>
       <c r="G87" s="11">
-        <v>165601</v>
+        <v>0</v>
       </c>
       <c r="H87" s="11">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>22</v>
       </c>
@@ -3415,23 +3415,23 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>-258940</v>
+        <v>-440662</v>
       </c>
       <c r="F88" s="9">
-        <v>-234927</v>
+        <v>-307974</v>
       </c>
       <c r="G88" s="9">
-        <v>-440662</v>
+        <v>-435410</v>
       </c>
       <c r="H88" s="9">
-        <v>-307974</v>
-      </c>
-      <c r="I88" s="9">
-        <v>-435410</v>
-      </c>
-      <c r="J88" s="9">
         <v>-258442</v>
       </c>
+      <c r="I88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K88" s="9" t="s">
         <v>17</v>
       </c>
@@ -3441,11 +3441,11 @@
       <c r="M88" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N88" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="9">
+        <v>-325794</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>23</v>
       </c>
@@ -3454,23 +3454,23 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>-70728</v>
+        <v>-108623</v>
       </c>
       <c r="F89" s="11">
-        <v>-77580</v>
+        <v>-78126</v>
       </c>
       <c r="G89" s="11">
-        <v>-108623</v>
+        <v>-200044</v>
       </c>
       <c r="H89" s="11">
-        <v>-78126</v>
-      </c>
-      <c r="I89" s="11">
-        <v>-200044</v>
-      </c>
-      <c r="J89" s="11">
         <v>-99391</v>
       </c>
+      <c r="I89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K89" s="11" t="s">
         <v>17</v>
       </c>
@@ -3480,11 +3480,11 @@
       <c r="M89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N89" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="11">
+        <v>-296479</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>25</v>
       </c>
@@ -3492,38 +3492,38 @@
         <v>19</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" s="9">
-        <v>0</v>
+      <c r="E90" s="9">
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <v>0</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H90" s="9">
         <v>0</v>
       </c>
-      <c r="I90" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J90" s="9">
-        <v>0</v>
-      </c>
-      <c r="K90" s="9">
-        <v>0</v>
+      <c r="I90" s="9">
+        <v>0</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="L90" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M90" s="9" t="s">
-        <v>17</v>
+      <c r="M90" s="9">
+        <v>0</v>
       </c>
       <c r="N90" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>17</v>
       </c>
@@ -3546,23 +3546,23 @@
       <c r="I91" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K91" s="11" t="s">
-        <v>17</v>
+      <c r="J91" s="11">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
       </c>
       <c r="L91" s="11">
         <v>0</v>
       </c>
-      <c r="M91" s="11">
-        <v>0</v>
-      </c>
-      <c r="N91" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>26</v>
       </c>
@@ -3582,63 +3582,63 @@
       <c r="H92" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>17</v>
+      <c r="I92" s="9">
+        <v>-328923</v>
+      </c>
+      <c r="J92" s="9">
+        <v>-332330</v>
       </c>
       <c r="K92" s="9">
-        <v>-328923</v>
+        <v>-634408</v>
       </c>
       <c r="L92" s="9">
-        <v>-332330</v>
+        <v>-562584</v>
       </c>
       <c r="M92" s="9">
-        <v>-634408</v>
+        <v>-1010104</v>
       </c>
       <c r="N92" s="9">
-        <v>-562584</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
-        <v>-400154</v>
+        <v>-437821</v>
       </c>
       <c r="F93" s="13">
-        <v>-369657</v>
+        <v>-447999</v>
       </c>
       <c r="G93" s="13">
-        <v>-437821</v>
+        <v>-721782</v>
       </c>
       <c r="H93" s="13">
-        <v>-447999</v>
+        <v>-462444</v>
       </c>
       <c r="I93" s="13">
-        <v>-721782</v>
+        <v>-2164026</v>
       </c>
       <c r="J93" s="13">
-        <v>-462444</v>
+        <v>-715419</v>
       </c>
       <c r="K93" s="13">
-        <v>-2164026</v>
+        <v>-1033821</v>
       </c>
       <c r="L93" s="13">
-        <v>-715419</v>
+        <v>-747097</v>
       </c>
       <c r="M93" s="13">
-        <v>-1033821</v>
+        <v>-1544118</v>
       </c>
       <c r="N93" s="13">
-        <v>-747097</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-961093</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3653,7 +3653,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3668,7 +3668,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3683,7 +3683,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>40</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3735,7 +3735,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>15</v>
       </c>
@@ -3744,37 +3744,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>20648</v>
+        <v>69118</v>
       </c>
       <c r="F99" s="9">
-        <v>3199</v>
+        <v>51015</v>
       </c>
       <c r="G99" s="9">
-        <v>69118</v>
+        <v>112997</v>
       </c>
       <c r="H99" s="9">
-        <v>51015</v>
+        <v>-2383</v>
       </c>
       <c r="I99" s="9">
-        <v>112997</v>
+        <v>373128</v>
       </c>
       <c r="J99" s="9">
-        <v>-2383</v>
+        <v>219432</v>
       </c>
       <c r="K99" s="9">
-        <v>373128</v>
+        <v>736839</v>
       </c>
       <c r="L99" s="9">
-        <v>219432</v>
+        <v>535818</v>
       </c>
       <c r="M99" s="9">
-        <v>736839</v>
+        <v>380757</v>
       </c>
       <c r="N99" s="9">
-        <v>535818</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>431225</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>18</v>
       </c>
@@ -3783,37 +3783,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>16454</v>
+        <v>-17208</v>
       </c>
       <c r="F100" s="11">
-        <v>-2185</v>
+        <v>0</v>
       </c>
       <c r="G100" s="11">
-        <v>-17208</v>
+        <v>0</v>
       </c>
       <c r="H100" s="11">
         <v>0</v>
       </c>
       <c r="I100" s="11">
-        <v>0</v>
-      </c>
-      <c r="J100" s="11">
-        <v>0</v>
+        <v>370014</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K100" s="11">
-        <v>370014</v>
-      </c>
-      <c r="L100" s="11" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="L100" s="11">
+        <v>111</v>
       </c>
       <c r="M100" s="11">
-        <v>0</v>
-      </c>
-      <c r="N100" s="11">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-88</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
@@ -3827,11 +3827,11 @@
       <c r="F101" s="9">
         <v>0</v>
       </c>
-      <c r="G101" s="9">
-        <v>0</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0</v>
+      <c r="G101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I101" s="9" t="s">
         <v>17</v>
@@ -3852,7 +3852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>21</v>
       </c>
@@ -3861,10 +3861,10 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>-98838</v>
+        <v>0</v>
       </c>
       <c r="F102" s="11">
-        <v>98838</v>
+        <v>0</v>
       </c>
       <c r="G102" s="11">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>22</v>
       </c>
@@ -3900,23 +3900,23 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>96165</v>
+        <v>-144477</v>
       </c>
       <c r="F103" s="9">
-        <v>9407</v>
+        <v>127416</v>
       </c>
       <c r="G103" s="9">
-        <v>-144477</v>
+        <v>116987</v>
       </c>
       <c r="H103" s="9">
-        <v>127416</v>
-      </c>
-      <c r="I103" s="9">
-        <v>116987</v>
-      </c>
-      <c r="J103" s="9">
         <v>230585</v>
       </c>
+      <c r="I103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K103" s="9" t="s">
         <v>17</v>
       </c>
@@ -3926,11 +3926,11 @@
       <c r="M103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N103" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="9">
+        <v>246401</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>23</v>
       </c>
@@ -3939,23 +3939,23 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>51833</v>
+        <v>174020</v>
       </c>
       <c r="F104" s="11">
-        <v>10156</v>
+        <v>59032</v>
       </c>
       <c r="G104" s="11">
-        <v>174020</v>
+        <v>42851</v>
       </c>
       <c r="H104" s="11">
-        <v>59032</v>
-      </c>
-      <c r="I104" s="11">
-        <v>42851</v>
-      </c>
-      <c r="J104" s="11">
         <v>90030</v>
       </c>
+      <c r="I104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K104" s="11" t="s">
         <v>17</v>
       </c>
@@ -3965,11 +3965,11 @@
       <c r="M104" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N104" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N104" s="11">
+        <v>17266</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>25</v>
       </c>
@@ -3977,38 +3977,38 @@
         <v>19</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" s="9">
+      <c r="E105" s="9">
         <v>33250</v>
       </c>
+      <c r="F105" s="9">
+        <v>0</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="H105" s="9">
         <v>0</v>
       </c>
-      <c r="I105" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J105" s="9">
-        <v>0</v>
-      </c>
-      <c r="K105" s="9">
+      <c r="I105" s="9">
         <v>19000</v>
       </c>
+      <c r="J105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="L105" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M105" s="9" t="s">
-        <v>17</v>
+      <c r="M105" s="9">
+        <v>28500</v>
       </c>
       <c r="N105" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>17</v>
       </c>
@@ -4031,23 +4031,23 @@
       <c r="I106" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J106" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106" s="11" t="s">
-        <v>17</v>
+      <c r="J106" s="11">
+        <v>0</v>
+      </c>
+      <c r="K106" s="11">
+        <v>0</v>
       </c>
       <c r="L106" s="11">
         <v>0</v>
       </c>
-      <c r="M106" s="11">
-        <v>0</v>
-      </c>
-      <c r="N106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M106" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>26</v>
       </c>
@@ -4067,60 +4067,60 @@
       <c r="H107" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I107" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>17</v>
+      <c r="I107" s="9">
+        <v>227336</v>
+      </c>
+      <c r="J107" s="9">
+        <v>195178</v>
       </c>
       <c r="K107" s="9">
-        <v>227336</v>
+        <v>145495</v>
       </c>
       <c r="L107" s="9">
-        <v>195178</v>
+        <v>169102</v>
       </c>
       <c r="M107" s="9">
-        <v>145495</v>
+        <v>-151011</v>
       </c>
       <c r="N107" s="9">
-        <v>169102</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>86262</v>
+        <v>114703</v>
       </c>
       <c r="F108" s="13">
-        <v>119415</v>
+        <v>237463</v>
       </c>
       <c r="G108" s="13">
-        <v>114703</v>
+        <v>272835</v>
       </c>
       <c r="H108" s="13">
-        <v>237463</v>
+        <v>318232</v>
       </c>
       <c r="I108" s="13">
-        <v>272835</v>
+        <v>989478</v>
       </c>
       <c r="J108" s="13">
-        <v>318232</v>
+        <v>414610</v>
       </c>
       <c r="K108" s="13">
-        <v>989478</v>
+        <v>882334</v>
       </c>
       <c r="L108" s="13">
-        <v>414610</v>
+        <v>705031</v>
       </c>
       <c r="M108" s="13">
-        <v>882334</v>
+        <v>258158</v>
       </c>
       <c r="N108" s="13">
-        <v>705031</v>
+        <v>694892</v>
       </c>
     </row>
   </sheetData>
